--- a/ControlPanel/resources/TestCases1.xlsx
+++ b/ControlPanel/resources/TestCases1.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="16">
   <si>
     <t>TestCase_ID</t>
   </si>
@@ -70,6 +70,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -421,21 +422,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M7"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="4" width="11.7109375" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="13.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="15.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="9" width="11.7109375" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="12.28515625" customWidth="1" collapsed="1"/>
-    <col min="11" max="13" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="12.5703125" collapsed="true"/>
+    <col min="2" max="4" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="13.5703125" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="15.28515625" collapsed="true"/>
+    <col min="7" max="9" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="11" max="13" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="1" customFormat="1">
@@ -491,7 +492,9 @@
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
+      <c r="F4" s="3" t="s">
+        <v>10</v>
+      </c>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
       <c r="J4" s="2"/>
@@ -504,7 +507,9 @@
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
+      <c r="F5" s="3" t="s">
+        <v>10</v>
+      </c>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
       <c r="J5" s="2"/>
@@ -549,7 +554,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
